--- a/src/main/resources/raw/JMLanguagePack.xlsx
+++ b/src/main/resources/raw/JMLanguagePack.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="211">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -222,90 +222,96 @@
     <t xml:space="preserve">Data fetch succeeded</t>
   </si>
   <si>
+    <t xml:space="preserve">003005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Data</t>
+  </si>
+  <si>
     <t xml:space="preserve">004001001001</t>
   </si>
   <si>
+    <t xml:space="preserve">Sunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004001001002</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monday</t>
   </si>
   <si>
-    <t xml:space="preserve">004001001002</t>
+    <t xml:space="preserve">004001001003</t>
   </si>
   <si>
     <t xml:space="preserve">Tuesday</t>
   </si>
   <si>
-    <t xml:space="preserve">004001001003</t>
+    <t xml:space="preserve">004001001004</t>
   </si>
   <si>
     <t xml:space="preserve">Wednesday</t>
   </si>
   <si>
-    <t xml:space="preserve">004001001004</t>
+    <t xml:space="preserve">004001001005</t>
   </si>
   <si>
     <t xml:space="preserve">Thursday</t>
   </si>
   <si>
-    <t xml:space="preserve">004001001005</t>
+    <t xml:space="preserve">004001001006</t>
   </si>
   <si>
     <t xml:space="preserve">Friday</t>
   </si>
   <si>
-    <t xml:space="preserve">004001001006</t>
+    <t xml:space="preserve">004001001007</t>
   </si>
   <si>
     <t xml:space="preserve">Saturday</t>
   </si>
   <si>
-    <t xml:space="preserve">004001001007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday</t>
-  </si>
-  <si>
     <t xml:space="preserve">004001002001</t>
   </si>
   <si>
+    <t xml:space="preserve">Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004001002002</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mon</t>
   </si>
   <si>
-    <t xml:space="preserve">004001002002</t>
+    <t xml:space="preserve">004001002003</t>
   </si>
   <si>
     <t xml:space="preserve">Tue</t>
   </si>
   <si>
-    <t xml:space="preserve">004001002003</t>
+    <t xml:space="preserve">004001002004</t>
   </si>
   <si>
     <t xml:space="preserve">Wed</t>
   </si>
   <si>
-    <t xml:space="preserve">004001002004</t>
+    <t xml:space="preserve">004001002005</t>
   </si>
   <si>
     <t xml:space="preserve">Thu</t>
   </si>
   <si>
-    <t xml:space="preserve">004001002005</t>
+    <t xml:space="preserve">004001002006</t>
   </si>
   <si>
     <t xml:space="preserve">Fri</t>
   </si>
   <si>
-    <t xml:space="preserve">004001002006</t>
+    <t xml:space="preserve">004001002007</t>
   </si>
   <si>
     <t xml:space="preserve">Sat</t>
   </si>
   <si>
-    <t xml:space="preserve">004001002007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun</t>
-  </si>
-  <si>
     <t xml:space="preserve">004002001001</t>
   </si>
   <si>
@@ -447,6 +453,36 @@
     <t xml:space="preserve">Dec</t>
   </si>
   <si>
+    <t xml:space="preserve">004003001001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004003001002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P.M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004003002001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004003002002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Empty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Batal</t>
   </si>
   <si>
@@ -531,6 +567,12 @@
     <t xml:space="preserve">Pengambilan data berhasil</t>
   </si>
   <si>
+    <t xml:space="preserve">Data Kosong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minggu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Senin</t>
   </si>
   <si>
@@ -549,7 +591,7 @@
     <t xml:space="preserve">Sabtu</t>
   </si>
   <si>
-    <t xml:space="preserve">Minggu</t>
+    <t xml:space="preserve">Min</t>
   </si>
   <si>
     <t xml:space="preserve">Sen</t>
@@ -570,9 +612,6 @@
     <t xml:space="preserve">Sab</t>
   </si>
   <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
     <t xml:space="preserve">Januari</t>
   </si>
   <si>
@@ -613,6 +652,9 @@
   </si>
   <si>
     <t xml:space="preserve">Des</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanggal Kosong</t>
   </si>
 </sst>
 </file>
@@ -790,10 +832,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1043,11 +1085,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1288,15 +1330,15 @@
         <v>126</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,6 +1387,54 @@
       </c>
       <c r="B68" s="0" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1363,10 +1453,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1397,7 +1487,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,7 +1495,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,7 +1503,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,7 +1511,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,7 +1519,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,7 +1527,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,7 +1535,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,7 +1543,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,7 +1551,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,7 +1559,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1477,7 +1567,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,7 +1575,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,7 +1583,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,7 +1591,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,7 +1599,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,7 +1607,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,7 +1615,7 @@
         <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,7 +1623,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,7 +1631,7 @@
         <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,7 +1639,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1557,7 +1647,7 @@
         <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,7 +1655,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1573,7 +1663,7 @@
         <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,7 +1671,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,7 +1679,7 @@
         <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,7 +1687,7 @@
         <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,7 +1695,7 @@
         <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,15 +1703,15 @@
         <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>169</v>
+      <c r="B31" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,7 +1719,7 @@
         <v>68</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,7 +1727,7 @@
         <v>70</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,7 +1735,7 @@
         <v>72</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1653,7 +1743,7 @@
         <v>74</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,7 +1751,7 @@
         <v>76</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,7 +1759,7 @@
         <v>78</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,7 +1767,7 @@
         <v>80</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,7 +1775,7 @@
         <v>82</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,7 +1783,7 @@
         <v>84</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,7 +1791,7 @@
         <v>86</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,7 +1799,7 @@
         <v>88</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,7 +1807,7 @@
         <v>90</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,7 +1815,7 @@
         <v>92</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,7 +1823,7 @@
         <v>94</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,7 +1831,7 @@
         <v>96</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,7 +1839,7 @@
         <v>98</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,7 +1847,7 @@
         <v>100</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,7 +1855,7 @@
         <v>102</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,7 +1863,7 @@
         <v>104</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,7 +1871,7 @@
         <v>106</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,7 +1879,7 @@
         <v>108</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,7 +1887,7 @@
         <v>110</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,7 +1895,7 @@
         <v>112</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,7 +1903,7 @@
         <v>114</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,7 +1911,7 @@
         <v>116</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,7 +1919,7 @@
         <v>118</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,15 +1951,15 @@
         <v>126</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,7 +1975,7 @@
         <v>131</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,7 +1983,7 @@
         <v>133</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,7 +1991,7 @@
         <v>135</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,7 +1999,7 @@
         <v>137</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,7 +2007,55 @@
         <v>139</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
